--- a/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
@@ -50,12 +50,12 @@
     <t>BA</t>
   </si>
   <si>
+    <t>PA</t>
+  </si>
+  <si>
     <t>ES</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -95,10 +95,10 @@
     <t>MS</t>
   </si>
   <si>
+    <t>MT</t>
+  </si>
+  <si>
     <t>TO</t>
-  </si>
-  <si>
-    <t>MT</t>
   </si>
   <si>
     <t>tot_arrecadado</t>
@@ -798,7 +798,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>448.304</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>275.448</v>
@@ -859,37 +859,37 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>91.81599999999999</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>64.04342857142856</v>
@@ -1064,37 +1064,37 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>259.563</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>187.323</v>
@@ -1269,37 +1269,37 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>38.9</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>16.7</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>0</v>

--- a/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="uf-qtd" sheetId="1" r:id="rId1"/>
-    <sheet name="uf-tot-arrecad" sheetId="2" r:id="rId2"/>
-    <sheet name="uf-avg-arrecad" sheetId="3" r:id="rId3"/>
-    <sheet name="uf-max-arrecad" sheetId="4" r:id="rId4"/>
-    <sheet name="uf-tx-sucesso" sheetId="5" r:id="rId5"/>
+    <sheet name="qtd" sheetId="1" r:id="rId1"/>
+    <sheet name="tot-arrecad" sheetId="2" r:id="rId2"/>
+    <sheet name="avg-arrecad" sheetId="3" r:id="rId3"/>
+    <sheet name="max-arrecad" sheetId="4" r:id="rId4"/>
+    <sheet name="tx-sucesso" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -23,7 +23,7 @@
     <t>uf</t>
   </si>
   <si>
-    <t>qty</t>
+    <t>qtd</t>
   </si>
   <si>
     <t>SP</t>
@@ -50,12 +50,12 @@
     <t>BA</t>
   </si>
   <si>
+    <t>ES</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -95,10 +95,10 @@
     <t>MS</t>
   </si>
   <si>
+    <t>TO</t>
+  </si>
+  <si>
     <t>MT</t>
-  </si>
-  <si>
-    <t>TO</t>
   </si>
   <si>
     <t>tot_arrecadado</t>
@@ -798,7 +798,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>448.304</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>275.448</v>
@@ -859,22 +859,22 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -884,12 +884,12 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>91.81599999999999</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>64.04342857142856</v>
@@ -1064,22 +1064,22 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1089,12 +1089,12 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>259.563</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>187.323</v>
@@ -1269,37 +1269,37 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>38.9</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>16.7</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>

--- a/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
@@ -859,37 +859,37 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1269,37 +1269,37 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>0</v>

--- a/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="32">
   <si>
     <t>uf</t>
   </si>
@@ -41,6 +41,9 @@
     <t>PR</t>
   </si>
   <si>
+    <t>XX</t>
+  </si>
+  <si>
     <t>CE</t>
   </si>
   <si>
@@ -50,12 +53,12 @@
     <t>BA</t>
   </si>
   <si>
+    <t>PA</t>
+  </si>
+  <si>
     <t>ES</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -95,10 +98,10 @@
     <t>MS</t>
   </si>
   <si>
+    <t>MT</t>
+  </si>
+  <si>
     <t>TO</t>
-  </si>
-  <si>
-    <t>MT</t>
   </si>
   <si>
     <t>tot_arrecadado</t>
@@ -523,13 +526,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
       <c r="B7">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>33</v>
@@ -537,7 +543,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>29</v>
@@ -545,7 +551,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>27</v>
@@ -553,7 +559,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>18</v>
@@ -561,7 +567,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>18</v>
@@ -569,7 +575,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -577,7 +583,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -585,7 +591,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -593,7 +599,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -601,7 +607,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -609,7 +615,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -617,7 +623,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -625,7 +631,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -633,7 +639,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -641,7 +647,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -649,7 +655,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -657,7 +663,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -665,7 +671,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -673,7 +679,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -681,7 +687,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -750,7 +756,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1665.849</v>
@@ -758,7 +764,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>1474.994</v>
@@ -766,7 +772,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1066.112</v>
@@ -774,7 +780,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>1059.207</v>
@@ -782,7 +788,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>749.011</v>
@@ -790,7 +796,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>472.23</v>
@@ -798,13 +804,16 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>448.304</v>
       </c>
     </row>
     <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
       <c r="B14">
         <v>379.721</v>
       </c>
@@ -819,7 +828,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>240.63</v>
@@ -827,7 +836,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>102.224</v>
@@ -835,7 +844,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>66.254</v>
@@ -843,7 +852,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>48.726</v>
@@ -851,7 +860,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>10.534</v>
@@ -859,12 +868,12 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -874,12 +883,12 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -889,7 +898,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -910,12 +919,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>749.011</v>
@@ -923,7 +932,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>491.6646666666666</v>
@@ -971,7 +980,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>213.2224</v>
@@ -979,7 +988,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>211.8414</v>
@@ -987,7 +996,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>208.231125</v>
@@ -995,7 +1004,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>118.0575</v>
@@ -1011,20 +1020,23 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>80.20999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
       <c r="B15">
         <v>75.9442</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>66.254</v>
@@ -1032,7 +1044,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>64.04342857142856</v>
@@ -1040,7 +1052,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>48.726</v>
@@ -1048,7 +1060,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>34.07466666666667</v>
@@ -1056,7 +1068,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>10.534</v>
@@ -1064,22 +1076,22 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1089,12 +1101,12 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1152,7 +1164,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>966.432</v>
@@ -1160,7 +1172,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>914.181</v>
@@ -1168,7 +1180,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>749.011</v>
@@ -1184,7 +1196,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>511.944</v>
@@ -1192,7 +1204,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>466.111</v>
@@ -1200,7 +1212,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>259.563</v>
@@ -1216,20 +1228,23 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>176.304</v>
       </c>
     </row>
     <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
       <c r="B15">
         <v>169.288</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>168.537</v>
@@ -1237,7 +1252,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>66.254</v>
@@ -1245,7 +1260,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>55.681</v>
@@ -1253,7 +1268,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>48.726</v>
@@ -1261,7 +1276,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>10.534</v>
@@ -1274,22 +1289,22 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1299,7 +1314,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1320,12 +1335,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1333,7 +1348,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>41.7</v>
@@ -1341,7 +1356,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>38.9</v>
@@ -1349,7 +1364,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>37.5</v>
@@ -1357,7 +1372,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>33.3</v>
@@ -1389,7 +1404,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>24.2</v>
@@ -1405,7 +1420,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>18.8</v>
@@ -1421,7 +1436,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>17.2</v>
@@ -1437,7 +1452,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>14.8</v>
@@ -1445,20 +1460,23 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>11.1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
       <c r="B18">
         <v>10.6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>9.1</v>
@@ -1466,7 +1484,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>7.7</v>
@@ -1482,7 +1500,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1490,7 +1508,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1498,7 +1516,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1506,7 +1524,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1514,7 +1532,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1522,7 +1540,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>

--- a/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
@@ -868,37 +868,37 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1076,27 +1076,27 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1284,37 +1284,37 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>0</v>

--- a/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
@@ -883,17 +883,17 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1081,32 +1081,32 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1284,37 +1284,37 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0</v>

--- a/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
@@ -873,22 +873,22 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -898,7 +898,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1076,37 +1076,37 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1284,27 +1284,27 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1492,7 +1492,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>0</v>

--- a/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
@@ -53,12 +53,12 @@
     <t>BA</t>
   </si>
   <si>
+    <t>ES</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -98,10 +98,10 @@
     <t>MS</t>
   </si>
   <si>
+    <t>TO</t>
+  </si>
+  <si>
     <t>MT</t>
-  </si>
-  <si>
-    <t>TO</t>
   </si>
   <si>
     <t>tot_arrecadado</t>
@@ -804,7 +804,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>448.304</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>275.448</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -878,27 +878,27 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>91.81599999999999</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>64.04342857142856</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1086,27 +1086,27 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>259.563</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>187.323</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1304,17 +1304,17 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>38.9</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>16.7</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0</v>

--- a/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
+++ b/dados/analises/2024/excel/04-ranking-uf-rec.xlsx
@@ -53,12 +53,12 @@
     <t>BA</t>
   </si>
   <si>
+    <t>PA</t>
+  </si>
+  <si>
     <t>ES</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -98,10 +98,10 @@
     <t>MS</t>
   </si>
   <si>
+    <t>MT</t>
+  </si>
+  <si>
     <t>TO</t>
-  </si>
-  <si>
-    <t>MT</t>
   </si>
   <si>
     <t>tot_arrecadado</t>
@@ -804,7 +804,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>448.304</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>275.448</v>
@@ -868,37 +868,37 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>91.81599999999999</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>64.04342857142856</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1086,27 +1086,27 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>259.563</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>187.323</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1304,17 +1304,17 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>38.9</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>16.7</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>0</v>
